--- a/Analysis/Accelerometer_Calibration.xlsx
+++ b/Analysis/Accelerometer_Calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmersr\Documents\GitHub\segway-project\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BD461D-0254-421D-A8F6-6095016A2E71}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1918565-C282-416D-BF92-44160909F371}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{6E1905EB-0FB0-46ED-A620-49B0DBD3C864}"/>
   </bookViews>
@@ -7730,15 +7730,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D97194B-DE0C-4D90-9D8D-306EDED54657}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7781,8 +7781,17 @@
         <f>9.81*SIN(PI()*(A3/180))</f>
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>116.59</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -7800,8 +7809,17 @@
         <f t="shared" ref="E4:E39" si="1">9.81*SIN(PI()*(A4/180))</f>
         <v>0.85499783635452664</v>
       </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>95.92</v>
+      </c>
+      <c r="I4">
+        <v>8.77</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -7819,8 +7837,17 @@
         <f t="shared" si="1"/>
         <v>1.7034886229125867</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>88.71</v>
+      </c>
+      <c r="I5">
+        <v>11.99</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -7838,8 +7865,17 @@
         <f t="shared" si="1"/>
         <v>2.5390148324557287</v>
       </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>83.07</v>
+      </c>
+      <c r="I6">
+        <v>17.399999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -7857,8 +7893,17 @@
         <f t="shared" si="1"/>
         <v>3.3552176060248105</v>
       </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="I7">
+        <v>22.92</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -7876,8 +7921,17 @@
         <f t="shared" si="1"/>
         <v>4.1458851476762622</v>
       </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>71.88</v>
+      </c>
+      <c r="I8">
+        <v>28.49</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -7895,8 +7949,17 @@
         <f t="shared" si="1"/>
         <v>4.9049999999999994</v>
       </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="I9">
+        <v>33.72</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
@@ -7914,8 +7977,17 @@
         <f t="shared" si="1"/>
         <v>5.6267848406037624</v>
       </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>60.75</v>
+      </c>
+      <c r="I10">
+        <v>39.549999999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -7933,8 +8005,17 @@
         <f t="shared" si="1"/>
         <v>6.3057464510249508</v>
       </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>55.3</v>
+      </c>
+      <c r="I11">
+        <v>44.93</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
@@ -7952,8 +8033,17 @@
         <f t="shared" si="1"/>
         <v>6.9367175234400307</v>
       </c>
+      <c r="G12">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>49.94</v>
+      </c>
+      <c r="I12">
+        <v>50.25</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
@@ -7971,8 +8061,17 @@
         <f t="shared" si="1"/>
         <v>7.5148959869971748</v>
       </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>44.35</v>
+      </c>
+      <c r="I13">
+        <v>55.8</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55</v>
       </c>
@@ -7990,8 +8089,17 @@
         <f t="shared" si="1"/>
         <v>8.0358815544750097</v>
       </c>
+      <c r="G14">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>38.68</v>
+      </c>
+      <c r="I14">
+        <v>61.52</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>60</v>
       </c>
@@ -8009,8 +8117,17 @@
         <f t="shared" si="1"/>
         <v>8.4957092111253427</v>
       </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>33.01</v>
+      </c>
+      <c r="I15">
+        <v>67.209999999999994</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>
@@ -8028,8 +8145,17 @@
         <f t="shared" si="1"/>
         <v>8.8908793908295358</v>
       </c>
+      <c r="G16">
+        <v>65</v>
+      </c>
+      <c r="H16">
+        <v>27.56</v>
+      </c>
+      <c r="I16">
+        <v>72.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>70</v>
       </c>
@@ -8047,8 +8173,17 @@
         <f t="shared" si="1"/>
         <v>9.2183846099097604</v>
       </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+      <c r="H17">
+        <v>22.11</v>
+      </c>
+      <c r="I17">
+        <v>77.97</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>75</v>
       </c>
@@ -8066,8 +8201,17 @@
         <f t="shared" si="1"/>
         <v>9.4757323558957598</v>
       </c>
+      <c r="G18">
+        <v>75</v>
+      </c>
+      <c r="H18">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="I18">
+        <v>83.99</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -8085,8 +8229,17 @@
         <f t="shared" si="1"/>
         <v>9.6609640570497604</v>
       </c>
+      <c r="G19">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>11.14</v>
+      </c>
+      <c r="I19">
+        <v>89.15</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>85</v>
       </c>
@@ -8104,8 +8257,17 @@
         <f t="shared" si="1"/>
         <v>9.7726699882800236</v>
       </c>
+      <c r="G20">
+        <v>85</v>
+      </c>
+      <c r="H20">
+        <v>5.74</v>
+      </c>
+      <c r="I20">
+        <v>94.72</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90</v>
       </c>
@@ -8123,8 +8285,17 @@
         <f t="shared" si="1"/>
         <v>9.81</v>
       </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+      <c r="H21">
+        <v>3.13</v>
+      </c>
+      <c r="I21">
+        <v>100.1</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>95</v>
       </c>
@@ -8142,8 +8313,17 @@
         <f t="shared" si="1"/>
         <v>9.7726699882800236</v>
       </c>
+      <c r="G22">
+        <v>95</v>
+      </c>
+      <c r="H22">
+        <v>6.14</v>
+      </c>
+      <c r="I22">
+        <v>105.42</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
@@ -8161,8 +8341,17 @@
         <f t="shared" si="1"/>
         <v>9.6609640570497604</v>
       </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>10.8</v>
+      </c>
+      <c r="I23">
+        <v>110.6</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>105</v>
       </c>
@@ -8180,8 +8369,17 @@
         <f t="shared" si="1"/>
         <v>9.4757323558957598</v>
       </c>
+      <c r="G24">
+        <v>105</v>
+      </c>
+      <c r="H24">
+        <v>16.25</v>
+      </c>
+      <c r="I24">
+        <v>116.11</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>110</v>
       </c>
@@ -8199,8 +8397,17 @@
         <f t="shared" si="1"/>
         <v>9.2183846099097622</v>
       </c>
+      <c r="G25">
+        <v>110</v>
+      </c>
+      <c r="H25">
+        <v>21.66</v>
+      </c>
+      <c r="I25">
+        <v>121.6</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>115</v>
       </c>
@@ -8218,8 +8425,17 @@
         <f t="shared" si="1"/>
         <v>8.8908793908295376</v>
       </c>
+      <c r="G26">
+        <v>115</v>
+      </c>
+      <c r="H26">
+        <v>26.96</v>
+      </c>
+      <c r="I26">
+        <v>126.89</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>120</v>
       </c>
@@ -8237,8 +8453,17 @@
         <f t="shared" si="1"/>
         <v>8.4957092111253445</v>
       </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+      <c r="H27">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="I27">
+        <v>132.34</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125</v>
       </c>
@@ -8256,8 +8481,17 @@
         <f t="shared" si="1"/>
         <v>8.0358815544750115</v>
       </c>
+      <c r="G28">
+        <v>125</v>
+      </c>
+      <c r="H28">
+        <v>37.86</v>
+      </c>
+      <c r="I28">
+        <v>137.75</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>130</v>
       </c>
@@ -8275,8 +8509,17 @@
         <f t="shared" si="1"/>
         <v>7.5148959869971748</v>
       </c>
+      <c r="G29">
+        <v>130</v>
+      </c>
+      <c r="H29">
+        <v>43.21</v>
+      </c>
+      <c r="I29">
+        <v>143.16999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>135</v>
       </c>
@@ -8294,8 +8537,17 @@
         <f t="shared" si="1"/>
         <v>6.9367175234400325</v>
       </c>
+      <c r="G30">
+        <v>135</v>
+      </c>
+      <c r="H30">
+        <v>48.59</v>
+      </c>
+      <c r="I30">
+        <v>148.55000000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>140</v>
       </c>
@@ -8313,8 +8565,17 @@
         <f t="shared" si="1"/>
         <v>6.3057464510249526</v>
       </c>
+      <c r="G31">
+        <v>140</v>
+      </c>
+      <c r="H31">
+        <v>53.78</v>
+      </c>
+      <c r="I31">
+        <v>153.76</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>145</v>
       </c>
@@ -8332,8 +8593,17 @@
         <f t="shared" si="1"/>
         <v>5.6267848406037606</v>
       </c>
+      <c r="G32">
+        <v>145</v>
+      </c>
+      <c r="H32">
+        <v>59.48</v>
+      </c>
+      <c r="I32">
+        <v>159.44999999999999</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>150</v>
       </c>
@@ -8351,8 +8621,17 @@
         <f t="shared" si="1"/>
         <v>4.9049999999999994</v>
       </c>
+      <c r="G33">
+        <v>150</v>
+      </c>
+      <c r="H33">
+        <v>64.7</v>
+      </c>
+      <c r="I33">
+        <v>164.67</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>155</v>
       </c>
@@ -8370,8 +8649,17 @@
         <f t="shared" si="1"/>
         <v>4.1458851476762622</v>
       </c>
+      <c r="G34">
+        <v>155</v>
+      </c>
+      <c r="H34">
+        <v>70.09</v>
+      </c>
+      <c r="I34">
+        <v>170.05</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>160</v>
       </c>
@@ -8389,8 +8677,17 @@
         <f t="shared" si="1"/>
         <v>3.3552176060248118</v>
       </c>
+      <c r="G35">
+        <v>160</v>
+      </c>
+      <c r="H35">
+        <v>75.52</v>
+      </c>
+      <c r="I35">
+        <v>175.47</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>165</v>
       </c>
@@ -8408,8 +8705,17 @@
         <f t="shared" si="1"/>
         <v>2.5390148324557313</v>
       </c>
+      <c r="G36">
+        <v>165</v>
+      </c>
+      <c r="H36">
+        <v>80.69</v>
+      </c>
+      <c r="I36">
+        <v>180.62</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>170</v>
       </c>
@@ -8427,8 +8733,17 @@
         <f t="shared" si="1"/>
         <v>1.7034886229125901</v>
       </c>
+      <c r="G37">
+        <v>170</v>
+      </c>
+      <c r="H37">
+        <v>85.99</v>
+      </c>
+      <c r="I37">
+        <v>185.9</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>175</v>
       </c>
@@ -8446,8 +8761,17 @@
         <f t="shared" si="1"/>
         <v>0.85499783635452697</v>
       </c>
+      <c r="G38">
+        <v>175</v>
+      </c>
+      <c r="H38">
+        <v>91.32</v>
+      </c>
+      <c r="I38">
+        <v>191.06</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>180</v>
       </c>
@@ -8464,6 +8788,15 @@
       <c r="E39">
         <f t="shared" si="1"/>
         <v>1.2018706342653563E-15</v>
+      </c>
+      <c r="G39">
+        <v>180</v>
+      </c>
+      <c r="H39">
+        <v>96.71</v>
+      </c>
+      <c r="I39">
+        <v>195.94</v>
       </c>
     </row>
   </sheetData>
